--- a/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseLE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -815,6 +815,9 @@
     <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier.</t>
   </si>
   <si>
+    <t>resumen</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].id</t>
   </si>
   <si>
@@ -847,6 +850,9 @@
   </si>
   <si>
     <t>Allows the questionnaire response to be read without access to the questionnaire.</t>
+  </si>
+  <si>
+    <t>Resumen</t>
   </si>
   <si>
     <t>.text</t>
@@ -4008,7 +4014,7 @@
         <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>75</v>
@@ -4065,7 +4071,7 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4073,10 +4079,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4102,16 +4108,16 @@
         <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4160,7 +4166,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4178,7 +4184,7 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4186,10 +4192,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4215,14 +4221,14 @@
         <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4232,7 +4238,7 @@
         <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>75</v>
@@ -4271,7 +4277,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4289,7 +4295,7 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -4297,10 +4303,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4326,13 +4332,13 @@
         <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4382,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4400,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4408,10 +4414,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4517,10 +4523,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4628,10 +4634,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4741,10 +4747,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4767,19 +4773,19 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4804,13 +4810,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4828,7 +4834,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4846,7 +4852,7 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -4854,10 +4860,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4883,14 +4889,14 @@
         <v>76</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -4939,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4965,10 +4971,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4994,14 +5000,14 @@
         <v>76</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5050,7 +5056,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
